--- a/Programa_Optimizacion/Inforrmacion_Cuadro.xlsx
+++ b/Programa_Optimizacion/Inforrmacion_Cuadro.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Universidad\Diseño-Y-Optimización-de-Sistemas-de-Fabricación\Trabajo\Programa_Optimizacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F527BC66-6495-4BCB-A6A1-1FC87F0E4898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dimensiones" sheetId="1" r:id="rId1"/>
+    <sheet name="Conexiones" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,83 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+  <si>
+    <t>Dimensiones cuadro</t>
+  </si>
+  <si>
+    <t>Ancho (mm)</t>
+  </si>
+  <si>
+    <t>Altura (mm)</t>
+  </si>
+  <si>
+    <t>Dimensiones componentes</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Anchura (mm)</t>
+  </si>
+  <si>
+    <t>Nº Componente</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>Nobre</t>
+  </si>
+  <si>
+    <t>Borna</t>
+  </si>
+  <si>
+    <t>Conexiones entre componentes</t>
+  </si>
+  <si>
+    <t>Componente 1</t>
+  </si>
+  <si>
+    <t>Componente 2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,18 +109,103 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -49,8 +215,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +541,440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>340</v>
+      </c>
+      <c r="B3" s="1">
+        <v>340</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>150</v>
+      </c>
+      <c r="F3" s="4">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>120</v>
+      </c>
+      <c r="F7" s="1">
+        <v>120</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>90</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D0CB12-53D1-4705-B91B-C8A46CACBEC5}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>